--- a/src/assets/files/ItemUpload.xlsx
+++ b/src/assets/files/ItemUpload.xlsx
@@ -59,17 +59,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -80,14 +73,15 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -174,26 +168,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -215,30 +232,6 @@
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -253,20 +246,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G5" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G5" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:G5">
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
     <filterColumn colId="6"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="2" name="Item Name" dataDxfId="6"/>
-    <tableColumn id="3" name="Item Category" dataDxfId="5"/>
-    <tableColumn id="4" name="Item Description" dataDxfId="4"/>
-    <tableColumn id="17" name="Inventory Valution" dataDxfId="3"/>
-    <tableColumn id="5" name="Issue Method" dataDxfId="2"/>
-    <tableColumn id="6" name="Opening Balance" dataDxfId="1"/>
-    <tableColumn id="7" name="Default Price" dataDxfId="0"/>
+    <tableColumn id="2" name="Item Name" dataDxfId="7"/>
+    <tableColumn id="3" name="Item Category" dataDxfId="6"/>
+    <tableColumn id="4" name="Item Description" dataDxfId="5"/>
+    <tableColumn id="17" name="Inventory Valution" dataDxfId="4"/>
+    <tableColumn id="5" name="Issue Method" dataDxfId="3"/>
+    <tableColumn id="6" name="Opening Balance" dataDxfId="2"/>
+    <tableColumn id="7" name="Default Price" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -560,7 +553,7 @@
   <dimension ref="A1:AL999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -588,42 +581,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:38">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -634,19 +627,19 @@
       </c>
     </row>
     <row r="3" spans="1:38">
-      <c r="A3" s="11"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:38">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="4"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -707,14 +700,14 @@
       <c r="U8" s="1"/>
     </row>
     <row r="11" spans="1:38">
-      <c r="AI11" s="6"/>
-      <c r="AK11" s="6"/>
-      <c r="AL11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="4"/>
     </row>
     <row r="13" spans="1:38">
-      <c r="AI13" s="6"/>
-      <c r="AK13" s="6"/>
-      <c r="AL13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="4"/>
     </row>
     <row r="14" spans="1:38">
       <c r="A14" s="1"/>
@@ -723,9 +716,9 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="AI14" s="6"/>
-      <c r="AK14" s="6"/>
-      <c r="AL14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="4"/>
     </row>
     <row r="15" spans="1:38">
       <c r="A15" s="1"/>

--- a/src/assets/files/ItemUpload.xlsx
+++ b/src/assets/files/ItemUpload.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -25,12 +25,6 @@
     <t>Item Description</t>
   </si>
   <si>
-    <t>Inventory Valution</t>
-  </si>
-  <si>
-    <t>Issue Method</t>
-  </si>
-  <si>
     <t>Opening Balance</t>
   </si>
   <si>
@@ -40,19 +34,25 @@
     <t>Good</t>
   </si>
   <si>
-    <t>FIFO</t>
+    <t>Mobile</t>
   </si>
   <si>
-    <t>300</t>
+    <t>Vendor Name</t>
   </si>
   <si>
-    <t>Mobile</t>
+    <t>Location Code</t>
+  </si>
+  <si>
+    <t>kathir</t>
+  </si>
+  <si>
+    <t>trichy</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>Software</t>
+    <t>Electronic</t>
   </si>
 </sst>
 </file>
@@ -86,7 +86,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,12 +103,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -168,17 +162,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -187,6 +178,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -211,27 +223,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -246,20 +237,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G5" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:G5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G3" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:G3">
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
     <filterColumn colId="6"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="2" name="Item Name" dataDxfId="7"/>
-    <tableColumn id="3" name="Item Category" dataDxfId="6"/>
-    <tableColumn id="4" name="Item Description" dataDxfId="5"/>
-    <tableColumn id="17" name="Inventory Valution" dataDxfId="4"/>
-    <tableColumn id="5" name="Issue Method" dataDxfId="3"/>
-    <tableColumn id="6" name="Opening Balance" dataDxfId="2"/>
-    <tableColumn id="7" name="Default Price" dataDxfId="1"/>
+    <tableColumn id="2" name="Item Name" dataDxfId="6"/>
+    <tableColumn id="3" name="Item Category" dataDxfId="5"/>
+    <tableColumn id="4" name="Item Description" dataDxfId="4"/>
+    <tableColumn id="17" name="Vendor Name" dataDxfId="3"/>
+    <tableColumn id="5" name="Location Code" dataDxfId="2"/>
+    <tableColumn id="6" name="Opening Balance" dataDxfId="1"/>
+    <tableColumn id="7" name="Default Price" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -550,164 +541,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL999"/>
+  <dimension ref="A1:AL997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" customWidth="1"/>
+    <col min="6" max="6" width="21.26953125" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" customWidth="1"/>
+    <col min="10" max="10" width="15.1796875" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="20.81640625" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" customWidth="1"/>
+    <col min="15" max="15" width="20.7265625" customWidth="1"/>
+    <col min="16" max="16" width="14.54296875" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" customWidth="1"/>
-    <col min="19" max="19" width="17.140625" customWidth="1"/>
-    <col min="20" max="21" width="11.85546875" customWidth="1"/>
+    <col min="18" max="18" width="16.1796875" customWidth="1"/>
+    <col min="19" max="19" width="17.1796875" customWidth="1"/>
+    <col min="20" max="21" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:38">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:38">
-      <c r="A3" s="8"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:38">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:38">
-      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
     </row>
     <row r="6" spans="1:38">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:38">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-    </row>
-    <row r="8" spans="1:38">
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="9" spans="1:38">
+      <c r="AI9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="4"/>
     </row>
     <row r="11" spans="1:38">
       <c r="AI11" s="5"/>
       <c r="AK11" s="5"/>
       <c r="AL11" s="4"/>
     </row>
+    <row r="12" spans="1:38">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="AI12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="4"/>
+    </row>
     <row r="13" spans="1:38">
-      <c r="AI13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="4"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="U13" s="1"/>
     </row>
     <row r="14" spans="1:38">
       <c r="A14" s="1"/>
@@ -716,9 +710,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="AI14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="4"/>
+      <c r="U14" s="1"/>
     </row>
     <row r="15" spans="1:38">
       <c r="A15" s="1"/>
@@ -745,6 +737,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
       <c r="U17" s="1"/>
     </row>
     <row r="18" spans="1:21">
@@ -754,6 +747,20 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
     <row r="19" spans="1:21">
@@ -764,6 +771,19 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
     <row r="20" spans="1:21">
@@ -23238,13 +23258,6 @@
       <c r="U996" s="1"/>
     </row>
     <row r="997" spans="1:21">
-      <c r="A997" s="1"/>
-      <c r="B997" s="1"/>
-      <c r="C997" s="1"/>
-      <c r="D997" s="1"/>
-      <c r="E997" s="1"/>
-      <c r="F997" s="1"/>
-      <c r="G997" s="1"/>
       <c r="H997" s="1"/>
       <c r="I997" s="1"/>
       <c r="J997" s="1"/>
@@ -23260,45 +23273,6 @@
       <c r="T997" s="1"/>
       <c r="U997" s="1"/>
     </row>
-    <row r="998" spans="1:21">
-      <c r="A998" s="1"/>
-      <c r="B998" s="1"/>
-      <c r="C998" s="1"/>
-      <c r="D998" s="1"/>
-      <c r="E998" s="1"/>
-      <c r="F998" s="1"/>
-      <c r="G998" s="1"/>
-      <c r="H998" s="1"/>
-      <c r="I998" s="1"/>
-      <c r="J998" s="1"/>
-      <c r="K998" s="1"/>
-      <c r="L998" s="1"/>
-      <c r="M998" s="1"/>
-      <c r="N998" s="1"/>
-      <c r="O998" s="1"/>
-      <c r="P998" s="1"/>
-      <c r="Q998" s="1"/>
-      <c r="R998" s="1"/>
-      <c r="S998" s="1"/>
-      <c r="T998" s="1"/>
-      <c r="U998" s="1"/>
-    </row>
-    <row r="999" spans="1:21">
-      <c r="H999" s="1"/>
-      <c r="I999" s="1"/>
-      <c r="J999" s="1"/>
-      <c r="K999" s="1"/>
-      <c r="L999" s="1"/>
-      <c r="M999" s="1"/>
-      <c r="N999" s="1"/>
-      <c r="O999" s="1"/>
-      <c r="P999" s="1"/>
-      <c r="Q999" s="1"/>
-      <c r="R999" s="1"/>
-      <c r="S999" s="1"/>
-      <c r="T999" s="1"/>
-      <c r="U999" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/assets/files/ItemUpload.xlsx
+++ b/src/assets/files/ItemUpload.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Item Name</t>
   </si>
@@ -34,25 +34,22 @@
     <t>Good</t>
   </si>
   <si>
-    <t>Mobile</t>
-  </si>
-  <si>
     <t>Vendor Name</t>
-  </si>
-  <si>
-    <t>Location Code</t>
-  </si>
-  <si>
-    <t>kathir</t>
-  </si>
-  <si>
-    <t>trichy</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>Electronic</t>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Kannan</t>
+  </si>
+  <si>
+    <t>Madurai</t>
+  </si>
+  <si>
+    <t>Location Name</t>
   </si>
 </sst>
 </file>
@@ -248,7 +245,7 @@
     <tableColumn id="3" name="Item Category" dataDxfId="5"/>
     <tableColumn id="4" name="Item Description" dataDxfId="4"/>
     <tableColumn id="17" name="Vendor Name" dataDxfId="3"/>
-    <tableColumn id="5" name="Location Code" dataDxfId="2"/>
+    <tableColumn id="5" name="Location Name" dataDxfId="2"/>
     <tableColumn id="6" name="Opening Balance" dataDxfId="1"/>
     <tableColumn id="7" name="Default Price" dataDxfId="0"/>
   </tableColumns>
@@ -544,7 +541,7 @@
   <dimension ref="A1:AL997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -553,7 +550,7 @@
     <col min="2" max="2" width="16.7265625" customWidth="1"/>
     <col min="3" max="3" width="12.1796875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" customWidth="1"/>
     <col min="6" max="6" width="21.26953125" customWidth="1"/>
     <col min="7" max="7" width="14.453125" customWidth="1"/>
     <col min="8" max="8" width="13.54296875" customWidth="1"/>
@@ -582,10 +579,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>3</v>
@@ -596,10 +593,10 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>5</v>
@@ -611,10 +608,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:38">

--- a/src/assets/files/ItemUpload.xlsx
+++ b/src/assets/files/ItemUpload.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -83,7 +83,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,8 +98,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -159,17 +165,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,84 +549,84 @@
   <dimension ref="A1:AL997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" customWidth="1"/>
-    <col min="6" max="6" width="21.26953125" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" customWidth="1"/>
-    <col min="10" max="10" width="15.1796875" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="20.81640625" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="20.7265625" customWidth="1"/>
-    <col min="16" max="16" width="14.54296875" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="16.1796875" customWidth="1"/>
-    <col min="19" max="19" width="17.1796875" customWidth="1"/>
-    <col min="20" max="21" width="11.81640625" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" customWidth="1"/>
+    <col min="19" max="19" width="17.140625" customWidth="1"/>
+    <col min="20" max="21" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:38">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:38">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -671,14 +679,14 @@
       <c r="U6" s="1"/>
     </row>
     <row r="9" spans="1:38">
-      <c r="AI9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="3"/>
     </row>
     <row r="11" spans="1:38">
-      <c r="AI11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="3"/>
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="1"/>
@@ -687,9 +695,9 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="AI12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="3"/>
     </row>
     <row r="13" spans="1:38">
       <c r="A13" s="1"/>

--- a/src/assets/files/ItemUpload.xlsx
+++ b/src/assets/files/ItemUpload.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Item Name</t>
   </si>
@@ -31,22 +31,10 @@
     <t>Default Price</t>
   </si>
   <si>
-    <t>Good</t>
-  </si>
-  <si>
     <t>Vendor Name</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>Number</t>
-  </si>
-  <si>
-    <t>Kannan</t>
-  </si>
-  <si>
-    <t>Madurai</t>
   </si>
   <si>
     <t>Location Name</t>
@@ -549,7 +537,7 @@
   <dimension ref="A1:AL997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -587,10 +575,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>3</v>
@@ -601,26 +589,16 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="2"/>
